--- a/BackTest/2020-01-22 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-22 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,10 +583,14 @@
         <v>-2871.214073349999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2195</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2195</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +620,19 @@
         <v>-2271.257173349999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2190</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +661,19 @@
         <v>-2264.798873349999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2196</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +705,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +744,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +783,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +822,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +858,19 @@
         <v>-2490.065473349999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2188</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +899,19 @@
         <v>-2609.855473349999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2188</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +940,19 @@
         <v>-525.3274733499993</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2187</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +981,19 @@
         <v>-525.0274733499994</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2194</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1022,19 @@
         <v>-545.6974733499993</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2200</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1063,19 @@
         <v>-662.6861733499993</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2194</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1104,19 @@
         <v>-674.7468733499993</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2192</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1145,19 @@
         <v>-170.2463733499993</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2189</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1186,19 @@
         <v>-170.2463733499993</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2190</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1227,19 @@
         <v>-170.2463733499993</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2190</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1268,19 @@
         <v>-212.7817733499993</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2190</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1309,19 @@
         <v>-487.2370733499994</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2189</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1350,19 @@
         <v>-450.7370733499994</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2186</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1391,19 @@
         <v>-450.7370733499994</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2189</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1432,19 @@
         <v>-429.0681733499994</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2189</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1473,19 @@
         <v>-429.0681733499994</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2190</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1514,19 @@
         <v>-429.0681733499994</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2190</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1555,19 @@
         <v>-429.0681733499994</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2190</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1599,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1638,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1677,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1716,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1755,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1794,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1833,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1872,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1911,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1950,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1989,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2028,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2067,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2106,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2145,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2184,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2223,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2262,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2301,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2340,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2379,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2418,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2457,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2496,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2535,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2574,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2613,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2652,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2691,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2730,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2769,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2808,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2847,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2886,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2925,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2961,19 @@
         <v>8254.907705320002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2180</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +3002,19 @@
         <v>8254.907705320002</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2180</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +3043,19 @@
         <v>8254.907705320002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2180</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +3084,19 @@
         <v>7743.180705320002</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2180</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,15 +3125,19 @@
         <v>8018.989005320002</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>2177</v>
       </c>
       <c r="J70" t="n">
-        <v>2177</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
+        <v>2195</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,17 +3166,15 @@
         <v>7511.580705320001</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>2177</v>
+        <v>2195</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -2777,11 +3209,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>2177</v>
+        <v>2195</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -2812,11 +3244,19 @@
         <v>7511.580705320001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2182</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2848,8 +3288,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2878,11 +3324,19 @@
         <v>8015.431505320002</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2184</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2914,8 +3368,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2947,8 +3407,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2980,8 +3446,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3013,8 +3485,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3046,8 +3524,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3079,8 +3563,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3112,8 +3602,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3145,8 +3641,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3178,8 +3680,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3211,8 +3719,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3244,8 +3758,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3277,8 +3797,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3310,8 +3836,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3343,8 +3875,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3376,8 +3914,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3409,8 +3953,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3442,8 +3992,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3475,8 +4031,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3508,8 +4070,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3541,8 +4109,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3574,8 +4148,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3607,8 +4187,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3640,8 +4226,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3673,8 +4265,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3706,8 +4304,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3739,8 +4343,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3772,8 +4382,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3805,8 +4421,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3838,8 +4460,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3871,8 +4499,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3904,8 +4538,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3937,8 +4577,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3970,8 +4616,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4003,8 +4655,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4036,8 +4694,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4069,8 +4733,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4102,8 +4772,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4135,8 +4811,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4168,8 +4850,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4201,8 +4889,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4234,8 +4928,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4267,8 +4967,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4300,8 +5006,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4333,8 +5045,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4366,8 +5084,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4399,8 +5123,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4432,8 +5162,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4465,8 +5201,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4498,8 +5240,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4531,8 +5279,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4564,8 +5318,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4597,8 +5357,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4630,8 +5396,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4663,8 +5435,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4696,8 +5474,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4729,8 +5513,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4762,8 +5552,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4795,8 +5591,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4828,8 +5630,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4861,8 +5669,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4894,8 +5708,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4927,8 +5747,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4960,8 +5786,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4993,8 +5825,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5026,8 +5864,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5059,8 +5903,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5092,8 +5942,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5125,8 +5981,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5158,8 +6020,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5191,8 +6059,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5224,8 +6098,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5257,8 +6137,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5290,8 +6176,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5323,8 +6215,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5356,8 +6254,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5389,8 +6293,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5422,8 +6332,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5455,8 +6371,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5488,8 +6410,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5521,8 +6449,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5554,8 +6488,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5587,8 +6527,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5620,8 +6566,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5653,8 +6605,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5686,8 +6644,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5719,8 +6683,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5752,8 +6722,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5785,8 +6761,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5818,8 +6800,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5851,8 +6839,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5884,8 +6878,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5917,8 +6917,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5947,11 +6953,19 @@
         <v>3753.697802650003</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>2188</v>
+      </c>
+      <c r="J168" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5980,11 +6994,19 @@
         <v>-615.8647973499969</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>2194</v>
+      </c>
+      <c r="J169" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6013,11 +7035,19 @@
         <v>1809.248502650003</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>2190</v>
+      </c>
+      <c r="J170" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6049,8 +7079,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6079,11 +7115,19 @@
         <v>729.472502650003</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>2190</v>
+      </c>
+      <c r="J172" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6112,11 +7156,19 @@
         <v>1643.415456660003</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>2185</v>
+      </c>
+      <c r="J173" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6145,11 +7197,19 @@
         <v>1543.415456660003</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>2192</v>
+      </c>
+      <c r="J174" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6178,11 +7238,19 @@
         <v>1543.415456660003</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>2191</v>
+      </c>
+      <c r="J175" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6211,11 +7279,19 @@
         <v>1543.415456660003</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>2191</v>
+      </c>
+      <c r="J176" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6244,11 +7320,19 @@
         <v>2563.415456660003</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>2191</v>
+      </c>
+      <c r="J177" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6280,8 +7364,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6310,11 +7400,19 @@
         <v>1111.989856660003</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>2185</v>
+      </c>
+      <c r="J179" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6343,11 +7441,19 @@
         <v>1111.989856660003</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>2184</v>
+      </c>
+      <c r="J180" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6376,11 +7482,19 @@
         <v>2584.711756660003</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>2184</v>
+      </c>
+      <c r="J181" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6412,8 +7526,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6445,8 +7565,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6478,8 +7604,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6511,8 +7643,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6544,8 +7682,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6577,8 +7721,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6610,8 +7760,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6643,8 +7799,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6676,8 +7838,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6709,8 +7877,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6742,8 +7916,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6775,8 +7955,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6808,8 +7994,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6841,8 +8033,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6874,8 +8072,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6907,8 +8111,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6940,8 +8150,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6973,8 +8189,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7003,11 +8225,19 @@
         <v>-3691.695892589998</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>2184</v>
+      </c>
+      <c r="J200" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7036,11 +8266,19 @@
         <v>-5714.009400669997</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>2189</v>
+      </c>
+      <c r="J201" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7069,11 +8307,19 @@
         <v>-5714.009400669997</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>2184</v>
+      </c>
+      <c r="J202" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7102,11 +8348,19 @@
         <v>-5714.009400669997</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>2184</v>
+      </c>
+      <c r="J203" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7135,11 +8389,19 @@
         <v>-5714.009400669997</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>2184</v>
+      </c>
+      <c r="J204" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7168,11 +8430,19 @@
         <v>-5618.009400669997</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>2184</v>
+      </c>
+      <c r="J205" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7201,11 +8471,19 @@
         <v>-5739.918400669997</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>2188</v>
+      </c>
+      <c r="J206" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7234,11 +8512,19 @@
         <v>-6765.109800669997</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>2186</v>
+      </c>
+      <c r="J207" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7267,11 +8553,19 @@
         <v>-6765.109800669997</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>2182</v>
+      </c>
+      <c r="J208" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7300,11 +8594,19 @@
         <v>-6810.502400669997</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>2182</v>
+      </c>
+      <c r="J209" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7333,11 +8635,19 @@
         <v>-7727.768300669997</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>2179</v>
+      </c>
+      <c r="J210" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7366,11 +8676,19 @@
         <v>-7798.768300669997</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>2178</v>
+      </c>
+      <c r="J211" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7399,11 +8717,19 @@
         <v>-7751.385700669997</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>2176</v>
+      </c>
+      <c r="J212" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7432,11 +8758,19 @@
         <v>-5979.677500669997</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>2184</v>
+      </c>
+      <c r="J213" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7468,8 +8802,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7501,8 +8841,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7534,8 +8880,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7567,8 +8919,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7597,11 +8955,19 @@
         <v>-9735.028800669998</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>2180</v>
+      </c>
+      <c r="J218" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7630,11 +8996,19 @@
         <v>-9738.592298829997</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>2187</v>
+      </c>
+      <c r="J219" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7663,11 +9037,19 @@
         <v>-6181.288796989997</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>2184</v>
+      </c>
+      <c r="J220" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7696,11 +9078,19 @@
         <v>-6198.777496989997</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>2185</v>
+      </c>
+      <c r="J221" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7729,11 +9119,19 @@
         <v>-6216.784696989997</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>2181</v>
+      </c>
+      <c r="J222" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7762,11 +9160,19 @@
         <v>-6216.784696989997</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>2180</v>
+      </c>
+      <c r="J223" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7795,11 +9201,19 @@
         <v>-6365.146796989997</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>2180</v>
+      </c>
+      <c r="J224" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7828,11 +9242,19 @@
         <v>-5444.758696989997</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>2179</v>
+      </c>
+      <c r="J225" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7861,11 +9283,19 @@
         <v>-5468.172696989996</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>2180</v>
+      </c>
+      <c r="J226" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7894,11 +9324,19 @@
         <v>-5731.730696989996</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>2178</v>
+      </c>
+      <c r="J227" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7927,11 +9365,19 @@
         <v>-5731.730696989996</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>2177</v>
+      </c>
+      <c r="J228" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7960,15 +9406,19 @@
         <v>-5731.730696989996</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>2177</v>
       </c>
       <c r="J229" t="n">
-        <v>2177</v>
-      </c>
-      <c r="K229" t="inlineStr"/>
+        <v>2195</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7997,17 +9447,17 @@
         <v>-5744.516496989996</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>2177</v>
       </c>
       <c r="J230" t="n">
-        <v>2177</v>
+        <v>2195</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L230" t="n">
@@ -8038,17 +9488,17 @@
         <v>-5744.516496989996</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>2176</v>
       </c>
       <c r="J231" t="n">
-        <v>2177</v>
+        <v>2195</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L231" t="n">
@@ -8079,15 +9529,19 @@
         <v>-6724.485496989996</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>2176</v>
       </c>
       <c r="J232" t="n">
-        <v>2176</v>
-      </c>
-      <c r="K232" t="inlineStr"/>
+        <v>2195</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8116,17 +9570,17 @@
         <v>-6724.485496989996</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>2174</v>
       </c>
       <c r="J233" t="n">
-        <v>2176</v>
+        <v>2195</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L233" t="n">
@@ -8157,17 +9611,17 @@
         <v>-6609.987596989996</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>2174</v>
       </c>
       <c r="J234" t="n">
-        <v>2176</v>
+        <v>2195</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L234" t="n">
@@ -8198,11 +9652,19 @@
         <v>-6609.987596989996</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>2178</v>
+      </c>
+      <c r="J235" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8231,11 +9693,19 @@
         <v>-6609.987596989996</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>2178</v>
+      </c>
+      <c r="J236" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8264,11 +9734,19 @@
         <v>-6650.268396989995</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>2178</v>
+      </c>
+      <c r="J237" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8297,15 +9775,19 @@
         <v>-6612.127496989995</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>2174</v>
       </c>
       <c r="J238" t="n">
-        <v>2174</v>
-      </c>
-      <c r="K238" t="inlineStr"/>
+        <v>2195</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8334,17 +9816,17 @@
         <v>-6612.127496989995</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>2178</v>
       </c>
       <c r="J239" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L239" t="n">
@@ -8375,13 +9857,13 @@
         <v>-6612.127496989995</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>2178</v>
       </c>
       <c r="J240" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8416,13 +9898,13 @@
         <v>-6612.127496989995</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>2178</v>
       </c>
       <c r="J241" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8457,13 +9939,13 @@
         <v>-6433.784596989995</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>2178</v>
       </c>
       <c r="J242" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8498,13 +9980,13 @@
         <v>-6433.784596989995</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>2179</v>
       </c>
       <c r="J243" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8539,13 +10021,13 @@
         <v>-8333.396096989996</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>2179</v>
       </c>
       <c r="J244" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8580,13 +10062,13 @@
         <v>-8277.526396989997</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>2175</v>
       </c>
       <c r="J245" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8621,13 +10103,13 @@
         <v>-7028.766796989997</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>2179</v>
       </c>
       <c r="J246" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8662,13 +10144,13 @@
         <v>-7629.449196989996</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>2180</v>
       </c>
       <c r="J247" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8703,13 +10185,13 @@
         <v>-4360.375296989996</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>2179</v>
       </c>
       <c r="J248" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -8744,13 +10226,13 @@
         <v>-2089.908496989996</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>2180</v>
       </c>
       <c r="J249" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -8785,13 +10267,13 @@
         <v>-1989.908496989996</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>2181</v>
       </c>
       <c r="J250" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -8826,13 +10308,13 @@
         <v>-1628.652496989996</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>2182</v>
       </c>
       <c r="J251" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -8867,13 +10349,13 @@
         <v>-1656.972396989996</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>2186</v>
       </c>
       <c r="J252" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -8908,11 +10390,13 @@
         <v>-5936.871596989996</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>2182</v>
+      </c>
       <c r="J253" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -8951,7 +10435,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -8986,13 +10470,13 @@
         <v>-5936.871596989996</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>2181</v>
       </c>
       <c r="J255" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9027,13 +10511,13 @@
         <v>-5936.871596989996</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>2181</v>
       </c>
       <c r="J256" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9068,13 +10552,13 @@
         <v>-5942.672896989996</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>2181</v>
       </c>
       <c r="J257" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9109,13 +10593,13 @@
         <v>-5930.917396989996</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>2177</v>
       </c>
       <c r="J258" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9150,13 +10634,13 @@
         <v>-5930.417396989996</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>2181</v>
       </c>
       <c r="J259" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9191,13 +10675,13 @@
         <v>-3572.675396989996</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>2186</v>
       </c>
       <c r="J260" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9232,13 +10716,11 @@
         <v>-950.6923969899954</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>2187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9277,7 +10759,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9316,7 +10798,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9355,7 +10837,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9394,7 +10876,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9433,7 +10915,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9472,7 +10954,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9511,7 +10993,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9550,7 +11032,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9589,7 +11071,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9624,11 +11106,11 @@
         <v>14123.15614396001</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9667,7 +11149,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9706,7 +11188,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9741,11 +11223,11 @@
         <v>18542.08274396001</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9780,11 +11262,11 @@
         <v>17042.61494396001</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9823,7 +11305,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9862,7 +11344,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9897,11 +11379,11 @@
         <v>16572.66544396001</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9940,7 +11422,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9975,11 +11457,13 @@
         <v>16186.15594396001</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>2205</v>
+      </c>
       <c r="J280" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10014,11 +11498,13 @@
         <v>16717.48144396001</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>2204</v>
+      </c>
       <c r="J281" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10053,11 +11539,13 @@
         <v>16703.33204396001</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>2209</v>
+      </c>
       <c r="J282" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10092,11 +11580,13 @@
         <v>15989.14734396001</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>2204</v>
+      </c>
       <c r="J283" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10131,11 +11621,13 @@
         <v>15989.14734396001</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>2200</v>
+      </c>
       <c r="J284" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10170,11 +11662,13 @@
         <v>15989.14734396001</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>2200</v>
+      </c>
       <c r="J285" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10209,11 +11703,13 @@
         <v>15989.14734396001</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>2200</v>
+      </c>
       <c r="J286" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10248,11 +11744,13 @@
         <v>17130.58484396001</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>2200</v>
+      </c>
       <c r="J287" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10287,11 +11785,13 @@
         <v>15416.93623487001</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>2209</v>
+      </c>
       <c r="J288" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10326,11 +11826,13 @@
         <v>19570.06862578001</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>2200</v>
+      </c>
       <c r="J289" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10365,11 +11867,13 @@
         <v>19367.86862578001</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>2216</v>
+      </c>
       <c r="J290" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10404,11 +11908,13 @@
         <v>19367.86862578001</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>2211</v>
+      </c>
       <c r="J291" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10443,11 +11949,13 @@
         <v>19375.66862578001</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>2211</v>
+      </c>
       <c r="J292" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10482,11 +11990,13 @@
         <v>18651.51822578001</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>2212</v>
+      </c>
       <c r="J293" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10521,11 +12031,13 @@
         <v>18651.51822578001</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>2208</v>
+      </c>
       <c r="J294" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10560,11 +12072,13 @@
         <v>20103.66302578001</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>2208</v>
+      </c>
       <c r="J295" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10599,11 +12113,13 @@
         <v>19177.40062578001</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>2209</v>
+      </c>
       <c r="J296" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10638,11 +12154,13 @@
         <v>20003.87452578001</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>2203</v>
+      </c>
       <c r="J297" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10679,9 +12197,11 @@
       <c r="H298" t="n">
         <v>1</v>
       </c>
-      <c r="I298" t="inlineStr"/>
+      <c r="I298" t="n">
+        <v>2209</v>
+      </c>
       <c r="J298" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10718,9 +12238,11 @@
       <c r="H299" t="n">
         <v>1</v>
       </c>
-      <c r="I299" t="inlineStr"/>
+      <c r="I299" t="n">
+        <v>2208</v>
+      </c>
       <c r="J299" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10755,11 +12277,11 @@
         <v>19333.21044296001</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10794,11 +12316,11 @@
         <v>-50666.78955703999</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10833,11 +12355,11 @@
         <v>177643.48174296</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10876,7 +12398,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10915,7 +12437,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10954,7 +12476,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10993,7 +12515,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11032,7 +12554,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11071,7 +12593,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11110,7 +12632,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11149,7 +12671,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11188,7 +12710,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11227,7 +12749,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11266,7 +12788,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11305,7 +12827,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11344,7 +12866,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11383,7 +12905,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11422,7 +12944,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11461,7 +12983,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11500,7 +13022,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11539,7 +13061,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11578,7 +13100,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11617,7 +13139,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11656,7 +13178,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11695,7 +13217,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11734,7 +13256,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11773,7 +13295,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11812,7 +13334,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11851,7 +13373,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11890,7 +13412,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11929,7 +13451,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11968,7 +13490,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12007,7 +13529,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12046,7 +13568,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12085,7 +13607,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12124,7 +13646,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12163,7 +13685,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12202,7 +13724,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12241,7 +13763,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12280,7 +13802,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12319,7 +13841,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12358,7 +13880,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12397,7 +13919,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12436,7 +13958,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12475,7 +13997,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12514,7 +14036,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12553,7 +14075,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12592,7 +14114,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12631,7 +14153,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12670,7 +14192,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12709,7 +14231,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12748,7 +14270,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12787,7 +14309,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12826,7 +14348,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12865,7 +14387,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12904,7 +14426,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12943,7 +14465,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12978,19 +14500,19 @@
         <v>104123.8245499</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>2174</v>
+        <v>2195</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L357" t="n">
-        <v>1</v>
+        <v>1.009123006833713</v>
       </c>
       <c r="M357" t="inlineStr"/>
     </row>
@@ -13020,14 +14542,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>2174</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13056,17 +14572,11 @@
         <v>104939.5199499</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>2174</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13095,19 +14605,13 @@
         <v>110042.5199499</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>2174</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
-        <v>1.019839006439742</v>
+        <v>1</v>
       </c>
       <c r="M360" t="inlineStr"/>
     </row>
@@ -13134,7 +14638,7 @@
         <v>110043.0199499</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13167,7 +14671,7 @@
         <v>109228.3676499</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13200,7 +14704,7 @@
         <v>109229.3676499</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13233,7 +14737,7 @@
         <v>107361.8577499</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13266,7 +14770,7 @@
         <v>107361.8577499</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13299,7 +14803,7 @@
         <v>107391.2308499</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13332,7 +14836,7 @@
         <v>107514.8551499</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13365,7 +14869,7 @@
         <v>107514.8551499</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13398,7 +14902,7 @@
         <v>107514.5551499</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13431,7 +14935,7 @@
         <v>107514.2551499</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13464,7 +14968,7 @@
         <v>105413.2425499</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13497,7 +15001,7 @@
         <v>105413.2425499</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13530,7 +15034,7 @@
         <v>105913.03116074</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13563,7 +15067,7 @@
         <v>105368.21847158</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13596,7 +15100,7 @@
         <v>105368.21847158</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13629,7 +15133,7 @@
         <v>105002.78977158</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13662,7 +15166,7 @@
         <v>105002.78977158</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13695,7 +15199,7 @@
         <v>104451.94537158</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13728,7 +15232,7 @@
         <v>104451.94537158</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13761,7 +15265,7 @@
         <v>104451.94537158</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13794,7 +15298,7 @@
         <v>104365.94537158</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13827,7 +15331,7 @@
         <v>103222.68397158</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13860,7 +15364,7 @@
         <v>103288.32987158</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13893,7 +15397,7 @@
         <v>103234.17824704</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13926,7 +15430,7 @@
         <v>103234.17824704</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13959,7 +15463,7 @@
         <v>103229.66254704</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13992,7 +15496,7 @@
         <v>101909.18684704</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14025,7 +15529,7 @@
         <v>100975.77854704</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14058,7 +15562,7 @@
         <v>100975.77854704</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14091,7 +15595,7 @@
         <v>100976.07854704</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14124,7 +15628,7 @@
         <v>100528.70524704</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14157,7 +15661,7 @@
         <v>100528.70524704</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14190,7 +15694,7 @@
         <v>102077.70524704</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14223,7 +15727,7 @@
         <v>101429.56524704</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14256,7 +15760,7 @@
         <v>101429.56524704</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14289,7 +15793,7 @@
         <v>101429.56524704</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14322,7 +15826,7 @@
         <v>101744.16274704</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14355,7 +15859,7 @@
         <v>101743.91274704</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14388,7 +15892,7 @@
         <v>102377.80724704</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14421,7 +15925,7 @@
         <v>100713.74064704</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14553,7 +16057,7 @@
         <v>101423.85164704</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14586,7 +16090,7 @@
         <v>102391.18614704</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14619,7 +16123,7 @@
         <v>104411.65054704</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -16500,7 +18004,7 @@
         <v>98695.01814703998</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17919,7 +19423,7 @@
         <v>101903.70804704</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17952,7 +19456,7 @@
         <v>101903.70804704</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17985,7 +19489,7 @@
         <v>101903.70804704</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18018,7 +19522,7 @@
         <v>101903.70804704</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18051,7 +19555,7 @@
         <v>102508.15084704</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18084,7 +19588,7 @@
         <v>103793.55644704</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18117,7 +19621,7 @@
         <v>104304.19444704</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18150,7 +19654,7 @@
         <v>104099.98984704</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18183,7 +19687,7 @@
         <v>104099.98984704</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18216,7 +19720,7 @@
         <v>102019.29744704</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18249,7 +19753,7 @@
         <v>102019.29744704</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18282,7 +19786,7 @@
         <v>102001.53564704</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18315,7 +19819,7 @@
         <v>101801.53564704</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18348,7 +19852,7 @@
         <v>101801.53564704</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18381,7 +19885,7 @@
         <v>102319.68474704</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18414,7 +19918,7 @@
         <v>102289.68474704</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18447,7 +19951,7 @@
         <v>102167.68474704</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18480,7 +19984,7 @@
         <v>101181.48634704</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18513,7 +20017,7 @@
         <v>101181.48634704</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18546,7 +20050,7 @@
         <v>101181.48634704</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18579,7 +20083,7 @@
         <v>101176.98634704</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18612,7 +20116,7 @@
         <v>101276.98634704</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18645,7 +20149,7 @@
         <v>100966.98634704</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18678,7 +20182,7 @@
         <v>101568.98624704</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18711,7 +20215,7 @@
         <v>101346.94914704</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18744,7 +20248,7 @@
         <v>101346.94914704</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18777,7 +20281,7 @@
         <v>101346.94914704</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18810,7 +20314,7 @@
         <v>101346.94914704</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18843,7 +20347,7 @@
         <v>101346.94914704</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18876,7 +20380,7 @@
         <v>101346.94914704</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18909,7 +20413,7 @@
         <v>101346.94914704</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18942,7 +20446,7 @@
         <v>101377.94914704</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18975,7 +20479,7 @@
         <v>101377.94914704</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19008,7 +20512,7 @@
         <v>101338.94914704</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19041,7 +20545,7 @@
         <v>101438.97324704</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19074,7 +20578,7 @@
         <v>101820.70524704</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19107,7 +20611,7 @@
         <v>101820.70524704</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19305,7 +20809,7 @@
         <v>96242.73454703997</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19338,7 +20842,7 @@
         <v>95969.62034703998</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19371,7 +20875,7 @@
         <v>96435.40374703998</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19404,7 +20908,7 @@
         <v>96467.20392745998</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19437,7 +20941,7 @@
         <v>96467.79802745998</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19701,7 +21205,7 @@
         <v>94570.61042745996</v>
       </c>
       <c r="H560" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19734,7 +21238,7 @@
         <v>95120.54242745996</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19767,7 +21271,7 @@
         <v>95120.54242745996</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19800,7 +21304,7 @@
         <v>95120.54242745996</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19833,7 +21337,7 @@
         <v>95106.56042745996</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19866,7 +21370,7 @@
         <v>95308.56222925996</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19899,7 +21403,7 @@
         <v>95225.12002925995</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19932,7 +21436,7 @@
         <v>94986.76532925996</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19965,7 +21469,7 @@
         <v>92580.19722925995</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19998,7 +21502,7 @@
         <v>92730.19722925995</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20031,7 +21535,7 @@
         <v>92732.70060915995</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20064,7 +21568,7 @@
         <v>92732.70060915995</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20097,7 +21601,7 @@
         <v>95366.72970915995</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20130,7 +21634,7 @@
         <v>95713.60470915995</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20196,7 +21700,7 @@
         <v>95713.60470915995</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20229,7 +21733,7 @@
         <v>95827.58380915994</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20262,7 +21766,7 @@
         <v>95767.44600915995</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20295,7 +21799,7 @@
         <v>95829.65020915994</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20328,7 +21832,7 @@
         <v>95829.65020915994</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20361,7 +21865,7 @@
         <v>95822.63980915994</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20394,7 +21898,7 @@
         <v>96900.53556038994</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20427,7 +21931,7 @@
         <v>95838.73046038994</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20460,7 +21964,7 @@
         <v>95838.73046038994</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20493,7 +21997,7 @@
         <v>97101.38906038993</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20526,7 +22030,7 @@
         <v>97101.38906038993</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20625,7 +22129,7 @@
         <v>97548.28626038994</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20658,7 +22162,7 @@
         <v>97548.28626038994</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20691,7 +22195,7 @@
         <v>97008.09846038994</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20724,7 +22228,7 @@
         <v>97008.09846038994</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20757,7 +22261,7 @@
         <v>97008.09846038994</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20790,7 +22294,7 @@
         <v>96920.22496038994</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20823,7 +22327,7 @@
         <v>96920.22496038994</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20856,7 +22360,7 @@
         <v>96891.78486038993</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20889,7 +22393,7 @@
         <v>97192.56306038993</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20922,7 +22426,7 @@
         <v>96995.95226038994</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20955,7 +22459,7 @@
         <v>96788.65756038994</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20988,7 +22492,7 @@
         <v>96788.65756038994</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21021,7 +22525,7 @@
         <v>97329.74326038994</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21054,7 +22558,7 @@
         <v>96286.36076038993</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21087,7 +22591,7 @@
         <v>96086.36076038993</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21120,7 +22624,7 @@
         <v>96154.53886038993</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21153,7 +22657,7 @@
         <v>96129.93886038993</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21186,7 +22690,7 @@
         <v>94929.93886038993</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21219,7 +22723,7 @@
         <v>94338.16276038993</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21252,7 +22756,7 @@
         <v>95388.65066348993</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21285,7 +22789,7 @@
         <v>96288.65066348993</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21318,7 +22822,7 @@
         <v>95815.93166348993</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21351,7 +22855,7 @@
         <v>96715.93166348993</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21384,7 +22888,7 @@
         <v>92833.74596348993</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21417,7 +22921,7 @@
         <v>92848.47736348993</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21450,7 +22954,7 @@
         <v>92848.47736348993</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21483,7 +22987,7 @@
         <v>92280.77866348994</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21516,7 +23020,7 @@
         <v>92157.45786348994</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21549,7 +23053,7 @@
         <v>92157.45786348994</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21582,7 +23086,7 @@
         <v>92573.76566348993</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21615,7 +23119,7 @@
         <v>92573.76566348993</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21648,7 +23152,7 @@
         <v>92570.48256348993</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21681,7 +23185,7 @@
         <v>92575.88256348993</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21714,7 +23218,7 @@
         <v>92575.88256348993</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21747,7 +23251,7 @@
         <v>92575.88256348993</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21780,7 +23284,7 @@
         <v>92925.65176348992</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21813,7 +23317,7 @@
         <v>92941.84896348992</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21846,7 +23350,7 @@
         <v>92734.15486348992</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21879,7 +23383,7 @@
         <v>92734.38486348992</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21912,7 +23416,7 @@
         <v>92681.38486348992</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21945,7 +23449,7 @@
         <v>92781.38486348992</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21978,7 +23482,7 @@
         <v>93331.38486348992</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22011,7 +23515,7 @@
         <v>93181.38486348992</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22044,7 +23548,7 @@
         <v>92575.31476348992</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22110,7 +23614,7 @@
         <v>92709.81946348993</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22143,7 +23647,7 @@
         <v>92429.01566348993</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23166,7 +24670,7 @@
         <v>95539.54736348995</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23199,7 +24703,7 @@
         <v>94745.52616348995</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23232,7 +24736,7 @@
         <v>94826.99596348996</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23265,7 +24769,7 @@
         <v>95431.76456348995</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23298,7 +24802,7 @@
         <v>95280.47536348995</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23331,7 +24835,7 @@
         <v>95235.01306348995</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23364,7 +24868,7 @@
         <v>95130.29366348995</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23397,7 +24901,7 @@
         <v>95130.29366348995</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23430,7 +24934,7 @@
         <v>95130.29366348995</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23463,7 +24967,7 @@
         <v>95130.29366348995</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23496,7 +25000,7 @@
         <v>95130.29366348995</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23529,7 +25033,7 @@
         <v>95116.12566348995</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23562,7 +25066,7 @@
         <v>95340.28431516995</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23595,7 +25099,7 @@
         <v>95340.28431516995</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23628,7 +25132,7 @@
         <v>95340.28431516995</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23661,7 +25165,7 @@
         <v>95340.28431516995</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23694,7 +25198,7 @@
         <v>95340.28431516995</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23705,6 +25209,6 @@
       <c r="M681" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-22 BackTest QTUM.xlsx
@@ -946,7 +946,7 @@
         <v>-545.6974733499993</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -7942,10 +7942,14 @@
         <v>-5731.730696989996</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>2177</v>
+      </c>
+      <c r="J229" t="n">
+        <v>2177</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
@@ -7975,11 +7979,19 @@
         <v>-5744.516496989996</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>2177</v>
+      </c>
+      <c r="J230" t="n">
+        <v>2177</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8008,11 +8020,19 @@
         <v>-5744.516496989996</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>2176</v>
+      </c>
+      <c r="J231" t="n">
+        <v>2177</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8357,9 +8377,11 @@
         <v>-6612.127496989995</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>2178</v>
+      </c>
       <c r="J240" t="n">
         <v>2174</v>
       </c>
@@ -8396,9 +8418,11 @@
         <v>-6612.127496989995</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>2178</v>
+      </c>
       <c r="J241" t="n">
         <v>2174</v>
       </c>
@@ -8435,9 +8459,11 @@
         <v>-6433.784596989995</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>2178</v>
+      </c>
       <c r="J242" t="n">
         <v>2174</v>
       </c>
@@ -8474,9 +8500,11 @@
         <v>-6433.784596989995</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>2179</v>
+      </c>
       <c r="J243" t="n">
         <v>2174</v>
       </c>
@@ -8513,9 +8541,11 @@
         <v>-8333.396096989996</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>2179</v>
+      </c>
       <c r="J244" t="n">
         <v>2174</v>
       </c>
@@ -8552,9 +8582,11 @@
         <v>-8277.526396989997</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>2175</v>
+      </c>
       <c r="J245" t="n">
         <v>2174</v>
       </c>
@@ -8591,9 +8623,11 @@
         <v>-7028.766796989997</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>2179</v>
+      </c>
       <c r="J246" t="n">
         <v>2174</v>
       </c>
@@ -8630,9 +8664,11 @@
         <v>-7629.449196989996</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>2180</v>
+      </c>
       <c r="J247" t="n">
         <v>2174</v>
       </c>
@@ -8669,9 +8705,11 @@
         <v>-4360.375296989996</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>2179</v>
+      </c>
       <c r="J248" t="n">
         <v>2174</v>
       </c>
@@ -8708,9 +8746,11 @@
         <v>-2089.908496989996</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>2180</v>
+      </c>
       <c r="J249" t="n">
         <v>2174</v>
       </c>
@@ -8747,9 +8787,11 @@
         <v>-1989.908496989996</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>2181</v>
+      </c>
       <c r="J250" t="n">
         <v>2174</v>
       </c>
@@ -8786,9 +8828,11 @@
         <v>-1628.652496989996</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>2182</v>
+      </c>
       <c r="J251" t="n">
         <v>2174</v>
       </c>
@@ -8825,9 +8869,11 @@
         <v>-1656.972396989996</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>2186</v>
+      </c>
       <c r="J252" t="n">
         <v>2174</v>
       </c>
@@ -8864,9 +8910,11 @@
         <v>-5936.871596989996</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>2182</v>
+      </c>
       <c r="J253" t="n">
         <v>2174</v>
       </c>
@@ -8903,9 +8951,11 @@
         <v>-5936.871596989996</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>2181</v>
+      </c>
       <c r="J254" t="n">
         <v>2174</v>
       </c>
@@ -8942,9 +8992,11 @@
         <v>-5936.871596989996</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>2181</v>
+      </c>
       <c r="J255" t="n">
         <v>2174</v>
       </c>
@@ -8981,9 +9033,11 @@
         <v>-5936.871596989996</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>2181</v>
+      </c>
       <c r="J256" t="n">
         <v>2174</v>
       </c>
@@ -9020,9 +9074,11 @@
         <v>-5942.672896989996</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>2181</v>
+      </c>
       <c r="J257" t="n">
         <v>2174</v>
       </c>
@@ -9059,9 +9115,11 @@
         <v>-5930.917396989996</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>2177</v>
+      </c>
       <c r="J258" t="n">
         <v>2174</v>
       </c>
@@ -9098,9 +9156,11 @@
         <v>-5930.417396989996</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>2181</v>
+      </c>
       <c r="J259" t="n">
         <v>2174</v>
       </c>
@@ -9137,9 +9197,11 @@
         <v>-3572.675396989996</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>2186</v>
+      </c>
       <c r="J260" t="n">
         <v>2174</v>
       </c>
@@ -9176,9 +9238,11 @@
         <v>-950.6923969899954</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>2187</v>
+      </c>
       <c r="J261" t="n">
         <v>2174</v>
       </c>
@@ -9566,7 +9630,7 @@
         <v>14123.15614396001</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
@@ -9574,11 +9638,11 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L271" t="n">
-        <v>1.012479300827967</v>
+        <v>1</v>
       </c>
       <c r="M271" t="inlineStr"/>
     </row>
@@ -9605,11 +9669,17 @@
         <v>14123.15614396001</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9638,11 +9708,17 @@
         <v>19540.36654396001</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9671,11 +9747,17 @@
         <v>18542.08274396001</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9704,11 +9786,17 @@
         <v>17042.61494396001</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9737,11 +9825,17 @@
         <v>17042.61494396001</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9773,8 +9867,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9806,8 +9906,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9839,8 +9945,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9872,8 +9984,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9905,8 +10023,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9938,8 +10062,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9971,8 +10101,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10004,8 +10140,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10037,8 +10179,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10070,8 +10218,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10103,8 +10257,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10136,8 +10296,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10169,8 +10335,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10202,8 +10374,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10235,8 +10413,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10268,8 +10452,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10301,8 +10491,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10334,8 +10530,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10364,11 +10566,17 @@
         <v>20103.66302578001</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10397,11 +10605,17 @@
         <v>19177.40062578001</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10430,11 +10644,17 @@
         <v>20003.87452578001</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10463,11 +10683,17 @@
         <v>19083.70812578001</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10496,11 +10722,17 @@
         <v>19333.21044296001</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10529,11 +10761,17 @@
         <v>19333.21044296001</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10565,8 +10803,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10598,8 +10842,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10631,8 +10881,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10664,8 +10920,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10697,8 +10959,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10730,8 +10998,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10763,8 +11037,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10796,8 +11076,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10829,8 +11115,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10862,8 +11154,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10895,8 +11193,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10928,8 +11232,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10961,8 +11271,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10994,8 +11310,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11027,8 +11349,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11060,8 +11388,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11093,8 +11427,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11126,8 +11466,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11159,8 +11505,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11192,8 +11544,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11225,8 +11583,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11258,8 +11622,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11291,8 +11661,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11324,8 +11700,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11357,8 +11739,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11390,8 +11778,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11423,8 +11817,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11456,8 +11856,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11489,8 +11895,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11522,8 +11934,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11555,8 +11973,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11588,8 +12012,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11621,8 +12051,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11654,8 +12090,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11687,8 +12129,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11720,8 +12168,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11753,8 +12207,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11786,8 +12246,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11819,8 +12285,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11852,8 +12324,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11885,8 +12363,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11918,8 +12402,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11951,8 +12441,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11984,8 +12480,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12017,8 +12519,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12050,8 +12558,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12083,8 +12597,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12116,8 +12636,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12149,8 +12675,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12182,8 +12714,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12215,8 +12753,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12248,8 +12792,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12281,8 +12831,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12314,8 +12870,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12347,8 +12909,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12380,8 +12948,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12413,8 +12987,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12446,8 +13026,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12476,13 +13062,19 @@
         <v>104939.5199499</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>2174</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L359" t="n">
-        <v>1</v>
+        <v>1.017999080036799</v>
       </c>
       <c r="M359" t="inlineStr"/>
     </row>
@@ -12542,7 +13134,7 @@
         <v>110043.0199499</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12575,7 +13167,7 @@
         <v>109228.3676499</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12608,7 +13200,7 @@
         <v>109229.3676499</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12641,7 +13233,7 @@
         <v>107361.8577499</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12674,7 +13266,7 @@
         <v>107361.8577499</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12806,7 +13398,7 @@
         <v>107514.5551499</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12839,7 +13431,7 @@
         <v>107514.2551499</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12872,7 +13464,7 @@
         <v>105413.2425499</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12905,7 +13497,7 @@
         <v>105413.2425499</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -17558,7 +18150,7 @@
         <v>104099.98984704</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17591,7 +18183,7 @@
         <v>104099.98984704</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17822,7 +18414,7 @@
         <v>102289.68474704</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19571,7 +20163,7 @@
         <v>95713.60470915995</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19604,7 +20196,7 @@
         <v>95713.60470915995</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19637,7 +20229,7 @@
         <v>95827.58380915994</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19670,7 +20262,7 @@
         <v>95767.44600915995</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19703,7 +20295,7 @@
         <v>95829.65020915994</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19736,7 +20328,7 @@
         <v>95829.65020915994</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19769,7 +20361,7 @@
         <v>95822.63980915994</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19802,7 +20394,7 @@
         <v>96900.53556038994</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19835,7 +20427,7 @@
         <v>95838.73046038994</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19868,7 +20460,7 @@
         <v>95838.73046038994</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19901,7 +20493,7 @@
         <v>97101.38906038993</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19934,7 +20526,7 @@
         <v>97101.38906038993</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19967,7 +20559,7 @@
         <v>97044.38906038993</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20000,7 +20592,7 @@
         <v>97548.28626038994</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20033,7 +20625,7 @@
         <v>97548.28626038994</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20066,7 +20658,7 @@
         <v>97548.28626038994</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20099,7 +20691,7 @@
         <v>97008.09846038994</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20132,7 +20724,7 @@
         <v>97008.09846038994</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20165,7 +20757,7 @@
         <v>97008.09846038994</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20198,7 +20790,7 @@
         <v>96920.22496038994</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20231,7 +20823,7 @@
         <v>96920.22496038994</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22640,7 +23232,7 @@
         <v>94826.99596348996</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22706,7 +23298,7 @@
         <v>95280.47536348995</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22838,7 +23430,7 @@
         <v>95130.29366348995</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22904,7 +23496,7 @@
         <v>95130.29366348995</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
